--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Postman" sheetId="3" r:id="rId1"/>
     <sheet name="Postman_Pill" sheetId="1" r:id="rId2"/>
-    <sheet name="Postman_Pill Tasks" sheetId="8" r:id="rId3"/>
-    <sheet name="Sprints" sheetId="7" r:id="rId4"/>
+    <sheet name="Postman_Pill Tasks" sheetId="10" r:id="rId3"/>
+    <sheet name="Sprints" sheetId="11" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId5"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="130">
   <si>
     <t>General Analysis</t>
   </si>
@@ -260,15 +260,9 @@
     <t>Check requirements acomplished</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>PHP Unit</t>
-  </si>
-  <si>
     <t>Workflow without php UNIT</t>
   </si>
   <si>
@@ -314,33 +308,9 @@
     <t>Create App &amp; Test</t>
   </si>
   <si>
-    <t>Read items</t>
-  </si>
-  <si>
-    <t>Gather answers for presentation</t>
-  </si>
-  <si>
-    <t>Workflow without PHPUNIT</t>
-  </si>
-  <si>
-    <t>Code development</t>
-  </si>
-  <si>
-    <t>Readme</t>
-  </si>
-  <si>
     <t>Check deliverables</t>
   </si>
   <si>
-    <t>Write own algorithm</t>
-  </si>
-  <si>
-    <t>Extract Concepts</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>Project requirements</t>
   </si>
   <si>
@@ -441,6 +411,9 @@
   </si>
   <si>
     <t>POSTMAN</t>
+  </si>
+  <si>
+    <t>Discovery</t>
   </si>
 </sst>
 </file>
@@ -998,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,45 +1049,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1125,40 +1065,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1184,11 +1090,11 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1205,11 +1111,112 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2795,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2813,12 +2820,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2894,6 +2901,7 @@
         <v>43853</v>
       </c>
       <c r="E6" s="1">
+        <f>E32</f>
         <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
@@ -2920,7 +2928,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -3067,7 +3075,7 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>17</v>
@@ -3090,7 +3098,7 @@
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>17</v>
@@ -3113,7 +3121,7 @@
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>17</v>
@@ -3135,7 +3143,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -3151,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="H20" s="44"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -3199,7 +3207,7 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>17</v>
@@ -3328,7 +3336,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>30</v>
@@ -3343,7 +3351,7 @@
         <v>0.3</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="H31" s="45"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -3394,7 +3402,7 @@
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>17</v>
@@ -3414,7 +3422,7 @@
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>17</v>
@@ -3443,7 +3451,7 @@
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>17</v>
@@ -3466,7 +3474,7 @@
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>17</v>
@@ -3489,7 +3497,7 @@
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>17</v>
@@ -3621,9 +3629,9 @@
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="B48" s="30"/>
       <c r="C48" s="11" t="s">
         <v>13</v>
       </c>
@@ -3670,149 +3678,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="64">
+        <f>E13</f>
+        <v>9.1000000000000014</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="54">
-        <v>43845</v>
-      </c>
-      <c r="E4" s="55">
-        <v>1</v>
+      <c r="D4" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E4" s="69">
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
         <v>400040239</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E5" s="55">
-        <v>4</v>
+      <c r="D5" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E5" s="69">
+        <f>E21</f>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>400040241</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="54">
-        <v>43845</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>78</v>
+      <c r="D6" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E6" s="69">
+        <f>E23</f>
+        <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E7" s="55">
-        <v>1</v>
+      <c r="D7" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
         <v>400428238</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E8" s="55">
+      <c r="D8" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E8" s="69">
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
@@ -3820,19 +3836,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E9" s="55">
+      <c r="D9" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E9" s="69">
         <v>0.2</v>
       </c>
       <c r="F9" s="1">
@@ -3840,19 +3856,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E10" s="55">
+      <c r="D10" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E10" s="69">
         <v>0.2</v>
       </c>
       <c r="F10" s="1">
@@ -3860,19 +3876,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E11" s="55">
+      <c r="D11" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E11" s="69">
         <v>1</v>
       </c>
       <c r="F11" s="1">
@@ -3880,19 +3896,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E12" s="55">
+      <c r="D12" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E12" s="69">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -3900,40 +3916,47 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="56">
+      <c r="A13" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="64">
         <f>SUM(E4:E12)</f>
-        <v>8.9</v>
+        <v>9.1000000000000014</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="64">
+        <f>E21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3942,10 +3965,10 @@
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -3953,20 +3976,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E17" s="55">
-        <v>1</v>
+      <c r="D17" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0.2</v>
       </c>
       <c r="F17" s="1">
         <v>400409215</v>
@@ -3976,20 +3999,20 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E18" s="55">
-        <v>1</v>
+      <c r="D18" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E18" s="69">
+        <v>0.3</v>
       </c>
       <c r="F18" s="1">
         <v>401244108</v>
@@ -3999,20 +4022,20 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E19" s="55">
-        <v>1</v>
+      <c r="D19" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0.5</v>
       </c>
       <c r="F19" s="1">
         <v>400195273</v>
@@ -4022,57 +4045,64 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E20" s="55">
+      <c r="D20" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E20" s="69">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="H20" s="44"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="56">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="64">
         <f>SUM(E17:E20)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="64">
+        <f>E32</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4081,10 +4111,10 @@
       <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -4092,39 +4122,39 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E25" s="55">
-        <v>1</v>
+      <c r="D25" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E25" s="69">
+        <v>0.7</v>
       </c>
       <c r="F25" s="1">
         <v>400196227</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E26" s="55">
+      <c r="D26" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E26" s="69">
         <v>1</v>
       </c>
       <c r="F26" s="1">
@@ -4132,19 +4162,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="54">
-        <v>43846</v>
-      </c>
-      <c r="E27" s="55">
+      <c r="D27" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E27" s="69">
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
@@ -4152,19 +4182,19 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="65" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E28" s="55">
+      <c r="D28" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E28" s="69">
         <v>0.1</v>
       </c>
       <c r="F28" s="1">
@@ -4175,19 +4205,19 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="65" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E29" s="55">
+      <c r="D29" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E29" s="69">
         <v>0.2</v>
       </c>
       <c r="F29" s="1">
@@ -4198,19 +4228,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E30" s="55">
+      <c r="D30" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E30" s="69">
         <v>0.4</v>
       </c>
       <c r="F30" s="1">
@@ -4221,59 +4251,66 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E31" s="55">
+      <c r="D31" s="68">
+        <v>43853</v>
+      </c>
+      <c r="E31" s="69">
         <v>0.3</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="56">
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="64">
         <f>SUM(E25:E31)</f>
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-    </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+    </row>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="64">
+        <f>E42</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4282,10 +4319,10 @@
       <c r="C35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -4293,19 +4330,19 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="A36" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E36" s="55">
+      <c r="D36" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E36" s="69">
         <v>1</v>
       </c>
       <c r="F36" s="1">
@@ -4313,19 +4350,19 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E37" s="55">
+      <c r="D37" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E37" s="69">
         <v>3</v>
       </c>
       <c r="F37" s="1">
@@ -4342,19 +4379,19 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E38" s="55">
+      <c r="A38" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E38" s="69">
         <v>2</v>
       </c>
       <c r="F38" s="1">
@@ -4365,19 +4402,19 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E39" s="55">
+      <c r="D39" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E39" s="69">
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -4388,19 +4425,19 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="A40" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E40" s="55" t="s">
+      <c r="D40" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E40" s="69" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="1">
@@ -4410,22 +4447,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="54">
+    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="68">
         <v>43847</v>
       </c>
-      <c r="E41" s="55">
-        <v>2</v>
-      </c>
+      <c r="E41" s="69"/>
       <c r="F41" s="1">
         <v>400503264</v>
       </c>
@@ -4442,162 +4475,162 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="11" t="s">
+    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="64">
+        <f>SUM(E36:E41)</f>
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="0.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+    </row>
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="64">
+        <f>E49</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="56">
-        <f>SUM(E36:E41)</f>
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E46" s="69">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>401237373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E47" s="69">
         <v>3</v>
       </c>
-      <c r="D46" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="57" t="s">
+      <c r="F47" s="1">
+        <v>401238956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="77"/>
+      <c r="C48" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E48" s="69">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="64">
+        <f>SUM(E46:E48)</f>
         <v>5</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E47" s="55">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>401237373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E48" s="55">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>401238956</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="54">
-        <v>43847</v>
-      </c>
-      <c r="E49" s="55">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="15">
-        <f>SUM(E47:E49)</f>
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E51">
-        <f>E50+E43+E13</f>
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="27">
+        <f>E49+E42+E13</f>
+        <v>21.1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4605,889 +4638,935 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
       <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A1" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="28">
+        <f>E13</f>
+        <v>9.1000000000000014</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="D4" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E4" s="69">
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
         <v>400040239</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
+      <c r="D5" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E5" s="69">
+        <f>E21</f>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>400040241</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>78</v>
+      <c r="D6" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E6" s="69">
+        <f>E23</f>
+        <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="A7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>400196227</v>
+        <v>400428238</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E8" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>400237756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D9" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E9" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>400240092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E10" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>400240507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E11" s="69">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400430180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E12" s="69">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>400430773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="64">
+        <f>SUM(E4:E12)</f>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="74"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="28">
+        <f>E21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>400409215</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E18" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>401244108</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E19" s="69">
         <v>0.5</v>
       </c>
-      <c r="F8" s="1">
-        <v>400250003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>400250715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>400428238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="F19" s="1">
+        <v>400195273</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>400237756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>400240092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>400240507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>400430180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>400430773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="str">
-        <f>Postman_Pill!A2</f>
-        <v>General Analysis</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="37">
-        <f>Postman_Pill!E13</f>
-        <v>9.1000000000000014</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="D20" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E20" s="69">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="64">
+        <f>SUM(E17:E20)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E20" s="40">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>400409215</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E21" s="40">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>401244108</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E22" s="40">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>400195273</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
-      <c r="B23" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="37">
-        <f>Postman_Pill!E21</f>
+      <c r="B23" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="28">
+        <f>E32</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="31" t="s">
+      <c r="C24" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E25" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>400196227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E26" s="69">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>400196227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E27" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>400250003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E28" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>400255403</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E29" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>400388111</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E30" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>400410766</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="81">
+        <v>43853</v>
+      </c>
+      <c r="E31" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="64">
+        <f>SUM(E25:E31)</f>
+        <v>3.2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="74"/>
+    </row>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="28">
+        <f>E42</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C35" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D35" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="33" t="s">
+    <row r="36" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="81">
+        <v>43854</v>
+      </c>
+      <c r="E36" s="69">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>400474592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="81">
+        <v>43854</v>
+      </c>
+      <c r="E37" s="69">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>401221343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="81">
+        <v>43854</v>
+      </c>
+      <c r="E38" s="69">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>400504661</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="81">
+        <v>43854</v>
+      </c>
+      <c r="E39" s="69">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>401227412</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="81">
+        <v>43854</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="1">
+        <v>400501015</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E27" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>400255403</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E28" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>400388111</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="D41" s="81">
+        <v>43847</v>
+      </c>
+      <c r="E41" s="69"/>
+      <c r="F41" s="1">
+        <v>400503264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s">
+        <v>70</v>
+      </c>
+      <c r="S41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="86"/>
+      <c r="B42" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="64">
+        <f>SUM(E36:E41)</f>
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="74"/>
+    </row>
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="28">
+        <f>E49</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E46" s="69">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>401237373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E29" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>400410766</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="37">
-        <f>Postman_Pill!E32</f>
-        <v>3.2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D47" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E47" s="69">
         <v>3</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="39" t="s">
+      <c r="F47" s="1">
+        <v>401238956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="77"/>
+      <c r="C48" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="68">
+        <v>43854</v>
+      </c>
+      <c r="E48" s="69">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="64">
+        <f>SUM(E46:E48)</f>
         <v>5</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E35" s="40">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>400474592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E36" s="40">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1">
-        <v>401221343</v>
-      </c>
-      <c r="J36" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E37" s="40">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>400504661</v>
-      </c>
-      <c r="J37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E38" s="40">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>401227412</v>
-      </c>
-      <c r="J38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="1">
-        <v>400501015</v>
-      </c>
-      <c r="J39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="1">
-        <v>400503264</v>
-      </c>
-      <c r="J40" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" t="s">
-        <v>70</v>
-      </c>
-      <c r="S40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E41" s="40">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>400493007</v>
-      </c>
-      <c r="J41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L41" t="s">
-        <v>73</v>
-      </c>
-      <c r="N41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="2">
-        <v>43833</v>
-      </c>
-      <c r="E42" s="40">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>400513630</v>
-      </c>
-      <c r="J42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="37">
-        <f>Postman_Pill!E42</f>
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
-        <v>43834</v>
-      </c>
-      <c r="E47" s="40">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>401237373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2">
-        <v>43834</v>
-      </c>
-      <c r="E48" s="40">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>401238956</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="37">
-        <f>Postman_Pill!E49</f>
-        <v>5</v>
-      </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="41">
-        <f>E49+E43+E16</f>
+      <c r="A50" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="90">
+        <f>E49+E42+E13</f>
         <v>21.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5506,86 +5585,86 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5610,377 +5689,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33">
+        <v>4</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33">
+        <v>6</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="33">
+        <v>7</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="33">
+        <v>8</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="33">
+        <v>9</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33">
+        <v>10</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="33">
+        <v>1</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="33">
+        <v>2</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="33">
+        <v>3</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="33">
+        <v>4</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="62"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="58">
-        <v>1</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="62"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="58">
-        <v>2</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="58">
-        <v>3</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="58">
-        <v>4</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="58">
-        <v>5</v>
-      </c>
-      <c r="C8" s="83" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="62"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="58">
-        <v>6</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="58">
-        <v>7</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58">
-        <v>8</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="58">
-        <v>9</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="58">
-        <v>10</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58">
-        <v>1</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="58">
-        <v>2</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="58">
-        <v>3</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="58">
-        <v>4</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="C17:H17"/>
@@ -5993,6 +6066,12 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Postman" sheetId="3" r:id="rId1"/>
     <sheet name="Postman_Pill" sheetId="1" r:id="rId2"/>
     <sheet name="Postman_Pill Tasks" sheetId="10" r:id="rId3"/>
     <sheet name="Sprints" sheetId="11" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId6"/>
+    <sheet name="Algorithms" sheetId="2" r:id="rId5"/>
+    <sheet name="Checkings" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="136">
   <si>
     <t>General Analysis</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Workflow without php UNIT</t>
-  </si>
-  <si>
     <t>Add new class with functionality</t>
   </si>
   <si>
@@ -414,6 +411,27 @@
   </si>
   <si>
     <t>Discovery</t>
+  </si>
+  <si>
+    <t>TASK 1</t>
+  </si>
+  <si>
+    <t>TASK 2</t>
+  </si>
+  <si>
+    <t>TASK 3</t>
+  </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>SUBTASKS 1</t>
+  </si>
+  <si>
+    <t>SUBTASKS 2</t>
+  </si>
+  <si>
+    <t>SUBTASKS 3</t>
   </si>
 </sst>
 </file>
@@ -2820,12 +2838,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2928,7 +2946,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -3075,7 +3093,7 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>17</v>
@@ -3098,7 +3116,7 @@
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>17</v>
@@ -3121,7 +3139,7 @@
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>17</v>
@@ -3207,7 +3225,7 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>17</v>
@@ -3336,7 +3354,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>30</v>
@@ -3402,7 +3420,7 @@
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>17</v>
@@ -3422,7 +3440,7 @@
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>17</v>
@@ -3451,7 +3469,7 @@
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>17</v>
@@ -3474,7 +3492,7 @@
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>17</v>
@@ -3497,7 +3515,7 @@
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>17</v>
@@ -3629,7 +3647,7 @@
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="11" t="s">
@@ -3680,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3698,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3727,7 +3745,7 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3817,7 +3835,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="66" t="s">
         <v>17</v>
@@ -3977,7 +3995,7 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>17</v>
@@ -4000,7 +4018,7 @@
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>17</v>
@@ -4023,7 +4041,7 @@
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>17</v>
@@ -4123,7 +4141,7 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>17</v>
@@ -4252,7 +4270,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="76" t="s">
         <v>30</v>
@@ -4331,7 +4349,7 @@
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="66" t="s">
         <v>17</v>
@@ -4351,7 +4369,7 @@
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="66" t="s">
         <v>17</v>
@@ -4380,7 +4398,7 @@
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>17</v>
@@ -4403,7 +4421,7 @@
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>17</v>
@@ -4426,7 +4444,7 @@
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="66" t="s">
         <v>17</v>
@@ -4573,7 +4591,7 @@
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="77"/>
       <c r="C48" s="71" t="s">
@@ -4615,7 +4633,7 @@
       <c r="B50" s="78"/>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
-      <c r="E50" s="27">
+      <c r="E50" s="90">
         <f>E49+E42+E13</f>
         <v>21.1</v>
       </c>
@@ -4639,7 +4657,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection sqref="A1:E50"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4656,7 +4674,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -4685,7 +4703,7 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -4775,7 +4793,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
@@ -4932,7 +4950,7 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>22</v>
@@ -4952,7 +4970,7 @@
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>22</v>
@@ -4972,7 +4990,7 @@
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>22</v>
@@ -5062,7 +5080,7 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="79" t="s">
         <v>17</v>
@@ -5191,7 +5209,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="89" t="s">
         <v>30</v>
@@ -5270,7 +5288,7 @@
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="79" t="s">
         <v>17</v>
@@ -5290,7 +5308,7 @@
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="79" t="s">
         <v>17</v>
@@ -5319,7 +5337,7 @@
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="79" t="s">
         <v>17</v>
@@ -5342,7 +5360,7 @@
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="79" t="s">
         <v>17</v>
@@ -5365,7 +5383,7 @@
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="79" t="s">
         <v>17</v>
@@ -5512,7 +5530,7 @@
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="77"/>
       <c r="C48" s="71" t="s">
@@ -5575,96 +5593,121 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5690,7 +5733,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -5717,10 +5760,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>111</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
@@ -5728,7 +5771,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="37"/>
     </row>
@@ -5738,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -5746,7 +5789,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
       <c r="I4" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J4" s="37"/>
     </row>
@@ -5756,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
@@ -5764,7 +5807,7 @@
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
       <c r="I5" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="37"/>
     </row>
@@ -5774,7 +5817,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -5782,7 +5825,7 @@
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -5792,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -5800,7 +5843,7 @@
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
       <c r="I7" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="37"/>
     </row>
@@ -5810,7 +5853,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -5818,7 +5861,7 @@
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="37"/>
     </row>
@@ -5828,7 +5871,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -5836,7 +5879,7 @@
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
       <c r="I9" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9" s="37"/>
     </row>
@@ -5846,7 +5889,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -5854,7 +5897,7 @@
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
       <c r="I10" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="37"/>
     </row>
@@ -5864,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -5872,7 +5915,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J11" s="37"/>
     </row>
@@ -5882,7 +5925,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -5890,7 +5933,7 @@
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J12" s="37"/>
     </row>
@@ -5900,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -5908,7 +5951,7 @@
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="37"/>
     </row>
@@ -5926,7 +5969,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -5953,10 +5996,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
@@ -5964,7 +6007,7 @@
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
       <c r="I17" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="37"/>
     </row>
@@ -5974,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
@@ -5982,7 +6025,7 @@
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" s="37"/>
     </row>
@@ -5992,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
@@ -6000,7 +6043,7 @@
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="37"/>
     </row>
@@ -6010,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -6018,7 +6061,7 @@
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J20" s="37"/>
     </row>
@@ -6028,7 +6071,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -6036,7 +6079,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J21" s="37"/>
     </row>

--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Postman" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="139">
   <si>
     <t>General Analysis</t>
   </si>
@@ -263,48 +263,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Add new class with functionality</t>
-  </si>
-  <si>
-    <t>Call class</t>
-  </si>
-  <si>
-    <t>First Test</t>
-  </si>
-  <si>
-    <t>extends from PHPUnit's TestCase</t>
-  </si>
-  <si>
-    <t>new method test</t>
-  </si>
-  <si>
-    <t>run phpunit test</t>
-  </si>
-  <si>
-    <t>run with color</t>
-  </si>
-  <si>
-    <t>Compare param</t>
-  </si>
-  <si>
-    <t>1 warning</t>
-  </si>
-  <si>
-    <t>any assertions if empty</t>
-  </si>
-  <si>
-    <t>Call method class</t>
-  </si>
-  <si>
-    <t>define to compare</t>
-  </si>
-  <si>
-    <t>assert equals</t>
-  </si>
-  <si>
-    <t>Create App &amp; Test</t>
-  </si>
-  <si>
     <t>Check deliverables</t>
   </si>
   <si>
@@ -317,15 +275,6 @@
     <t>Tools used.</t>
   </si>
   <si>
-    <t>New folders</t>
-  </si>
-  <si>
-    <t>You must create a repository in GIT</t>
-  </si>
-  <si>
-    <t>You should not upload the dependencies</t>
-  </si>
-  <si>
     <t>Create a clear and orderly directory structure</t>
   </si>
   <si>
@@ -371,9 +320,6 @@
     <t>DELIVERABLE</t>
   </si>
   <si>
-    <t>Repository with code</t>
-  </si>
-  <si>
     <t>You must create a correctly documented README file in the root directory of the project (see guidelines in Resources)</t>
   </si>
   <si>
@@ -432,6 +378,69 @@
   </si>
   <si>
     <t>SUBTASKS 3</t>
+  </si>
+  <si>
+    <t>Repository with all project files</t>
+  </si>
+  <si>
+    <t>POSTMAN collection into the project repository</t>
+  </si>
+  <si>
+    <t>TASK 4</t>
+  </si>
+  <si>
+    <t>Select an authorization type</t>
+  </si>
+  <si>
+    <t>Enter a pre-request script to execute before the collection runs.</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Test result</t>
+  </si>
+  <si>
+    <t>Code scritps</t>
+  </si>
+  <si>
+    <t>The answer has body</t>
+  </si>
+  <si>
+    <t>The answer is in JSON</t>
+  </si>
+  <si>
+    <t>The header has “Content-Type”</t>
+  </si>
+  <si>
+    <t>The response time is less than 200ms</t>
+  </si>
+  <si>
+    <t>state code</t>
+  </si>
+  <si>
+    <t>code is (OK, Created, ...)</t>
+  </si>
+  <si>
+    <t>Set up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methods </t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Headers, key</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Body, keys</t>
+  </si>
+  <si>
+    <t>Network Chrome</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#0.0\ &quot;h&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -597,8 +606,13 @@
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -985,11 +1005,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,51 +1245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1227,15 +1325,92 @@
     <xf numFmtId="165" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,7 +1737,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
@@ -1574,17 +1749,17 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1799,7 @@
         <v>400040239</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1819,7 @@
         <v>400040241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1835,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1855,7 @@
         <v>400196227</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +1875,7 @@
         <v>400250003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1895,7 @@
         <v>400250715</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1915,7 @@
         <v>400428238</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1935,7 @@
         <v>400237756</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1955,7 @@
         <v>400240092</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1975,7 @@
         <v>400240507</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1995,7 @@
         <v>400430180</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1840,7 +2015,7 @@
         <v>400430773</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1861,13 +2036,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +2062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1910,7 +2085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1933,7 +2108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +2131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1977,13 +2152,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2026,7 +2201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2049,7 +2224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2072,7 +2247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2093,13 +2268,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -2139,7 +2314,7 @@
         <v>400391673</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2334,7 @@
         <v>400391854</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2180,13 +2355,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="39.950000000000003" customHeight="1"/>
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2206,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -2226,7 +2401,7 @@
         <v>400474592</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
@@ -2255,7 +2430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -2278,7 +2453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
@@ -2301,7 +2476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -2324,7 +2499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
@@ -2356,7 +2531,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
@@ -2385,7 +2560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>61</v>
       </c>
@@ -2408,7 +2583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2429,13 +2604,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1"/>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -2455,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
@@ -2475,7 +2650,7 @@
         <v>401237694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
@@ -2495,7 +2670,7 @@
         <v>400508705</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A54" s="3" t="s">
         <v>39</v>
       </c>
@@ -2515,7 +2690,7 @@
         <v>400511497</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>40</v>
       </c>
@@ -2535,7 +2710,7 @@
         <v>400511754</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
@@ -2555,7 +2730,7 @@
         <v>400511816</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A57" s="3" t="s">
         <v>35</v>
       </c>
@@ -2575,7 +2750,7 @@
         <v>400513722</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
@@ -2595,7 +2770,7 @@
         <v>401238559</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2616,13 +2791,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1"/>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2642,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -2662,7 +2837,7 @@
         <v>400512170</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -2682,7 +2857,7 @@
         <v>400512466</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>35</v>
       </c>
@@ -2702,7 +2877,7 @@
         <v>400513783</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2723,13 +2898,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1"/>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
@@ -2749,7 +2924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
@@ -2769,7 +2944,7 @@
         <v>401237373</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>49</v>
       </c>
@@ -2789,7 +2964,7 @@
         <v>401238956</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2820,11 +2995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
@@ -2836,17 +3011,17 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2866,7 +3041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +3061,7 @@
         <v>400040239</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +3082,7 @@
         <v>400040241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -2924,7 +3099,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2944,9 +3119,9 @@
         <v>400428238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -2964,7 +3139,7 @@
         <v>400237756</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2984,7 +3159,7 @@
         <v>400240092</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3004,7 +3179,7 @@
         <v>400240507</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3024,7 +3199,7 @@
         <v>400430180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -3044,7 +3219,7 @@
         <v>400430773</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3065,13 +3240,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3091,9 +3266,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>17</v>
@@ -3114,9 +3289,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>17</v>
@@ -3137,9 +3312,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>17</v>
@@ -3160,7 +3335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
@@ -3179,7 +3354,7 @@
       <c r="F20" s="1"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -3197,13 +3372,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -3223,9 +3398,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>17</v>
@@ -3243,7 +3418,7 @@
         <v>400196227</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -3263,7 +3438,7 @@
         <v>400196227</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3458,7 @@
         <v>400250003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -3306,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -3329,7 +3504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3352,9 +3527,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>30</v>
@@ -3371,7 +3546,7 @@
       <c r="F31" s="1"/>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3392,13 +3567,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="39.950000000000003" customHeight="1"/>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -3418,9 +3593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>17</v>
@@ -3438,9 +3613,9 @@
         <v>400474592</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>17</v>
@@ -3467,9 +3642,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>17</v>
@@ -3490,9 +3665,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>17</v>
@@ -3513,9 +3688,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>17</v>
@@ -3536,7 +3711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="3"/>
       <c r="B41" s="12" t="s">
         <v>17</v>
@@ -3564,7 +3739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B42" t="s">
         <v>17</v>
       </c>
@@ -3579,13 +3754,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="39.950000000000003" customHeight="1"/>
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>1</v>
       </c>
@@ -3605,7 +3780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>77</v>
       </c>
@@ -3625,7 +3800,7 @@
         <v>401237373</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -3645,9 +3820,9 @@
         <v>401238956</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="11" t="s">
@@ -3661,7 +3836,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3682,7 +3857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="E50">
         <f>E49+E42+E13</f>
         <v>21.1</v>
@@ -3699,10 +3874,10 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A30" sqref="A30:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
@@ -3714,17 +3889,17 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3743,52 +3918,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="64">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="47">
         <f>E13</f>
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="51">
         <v>43853</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="52">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
         <v>400040239</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="51">
         <v>43853</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="52">
         <f>E21</f>
         <v>2</v>
       </c>
@@ -3796,157 +3971,157 @@
         <v>400040241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="51">
         <v>43853</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="52">
         <f>E23</f>
         <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="51">
         <v>43853</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
         <v>400428238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="72" t="s">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="51">
         <v>43853</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="52">
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
         <v>400237756</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="51">
         <v>43853</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="52">
         <v>0.2</v>
       </c>
       <c r="F9" s="1">
         <v>400240092</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="51">
         <v>43853</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="52">
         <v>0.2</v>
       </c>
       <c r="F10" s="1">
         <v>400240507</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="51">
         <v>43853</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="52">
         <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>400430180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="51">
         <v>43853</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="52">
         <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>400430773</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="64">
+    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="47">
         <f>SUM(E4:E12)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -3954,27 +4129,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+    <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="64">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="47">
         <f>E21</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A16" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3993,20 +4168,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="73" t="s">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="51">
         <v>43853</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="52">
         <v>0.2</v>
       </c>
       <c r="F17" s="1">
@@ -4016,20 +4191,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="73" t="s">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="51">
         <v>43853</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="52">
         <v>0.3</v>
       </c>
       <c r="F18" s="1">
@@ -4039,20 +4214,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="73" t="s">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="51">
         <v>43853</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="52">
         <v>0.5</v>
       </c>
       <c r="F19" s="1">
@@ -4062,37 +4237,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="73" t="s">
+      <c r="B20" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="51">
         <v>43853</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="52">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="64">
+    <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="47">
         <f>SUM(E17:E20)</f>
         <v>2</v>
       </c>
@@ -4100,27 +4275,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="64">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="47">
         <f>E32</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A24" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4139,80 +4314,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="67" t="s">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A25" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="51">
         <v>43853</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="52">
         <v>0.7</v>
       </c>
       <c r="F25" s="1">
         <v>400196227</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A26" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="51">
         <v>43853</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="52">
         <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>400196227</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A27" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="71" t="s">
+      <c r="B27" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="51">
         <v>43853</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="52">
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
         <v>400250003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="51">
         <v>43853</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="52">
         <v>0.1</v>
       </c>
       <c r="F28" s="1">
@@ -4222,20 +4397,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="51">
         <v>43853</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="52">
         <v>0.2</v>
       </c>
       <c r="F29" s="1">
@@ -4245,20 +4420,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="51">
         <v>43853</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="52">
         <v>0.4</v>
       </c>
       <c r="F30" s="1">
@@ -4268,39 +4443,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="76" t="s">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A31" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="51">
         <v>43853</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="52">
         <v>0.3</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="64">
+    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A32" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="47">
         <f>SUM(E25:E31)</f>
         <v>3.2</v>
       </c>
@@ -4308,27 +4483,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-    </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+    <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A34" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="64">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="47">
         <f>E42</f>
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+    <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4347,40 +4522,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="70" t="s">
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A36" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="51">
         <v>43854</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="52">
         <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>400474592</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="70" t="s">
+    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A37" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="51">
         <v>43854</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="52">
         <v>3</v>
       </c>
       <c r="F37" s="1">
@@ -4396,20 +4571,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="70" t="s">
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A38" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="68">
+      <c r="D38" s="51">
         <v>43854</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="52">
         <v>2</v>
       </c>
       <c r="F38" s="1">
@@ -4419,20 +4594,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="71" t="s">
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A39" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="68">
+      <c r="D39" s="51">
         <v>43854</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="52">
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -4442,20 +4617,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="70" t="s">
+    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A40" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="51">
         <v>43854</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="52" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="1">
@@ -4465,18 +4640,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="67" t="s">
+    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A41" s="48"/>
+      <c r="B41" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="51">
         <v>43847</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="1">
         <v>400503264</v>
       </c>
@@ -4493,16 +4668,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="64">
+    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="47">
         <f>SUM(E36:E41)</f>
         <v>7</v>
       </c>
@@ -4510,27 +4685,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="0.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-    </row>
-    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
+    <row r="43" spans="1:19" ht="0.75" customHeight="1" thickTop="1">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A44" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="64">
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="47">
         <f>E49</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A45" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4549,76 +4724,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A46" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="71" t="s">
+      <c r="B46" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="51">
         <v>43854</v>
       </c>
-      <c r="E46" s="69">
+      <c r="E46" s="52">
         <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>401237373</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A47" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="72" t="s">
+      <c r="B47" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="51">
         <v>43854</v>
       </c>
-      <c r="E47" s="69">
+      <c r="E47" s="52">
         <v>3</v>
       </c>
       <c r="F47" s="1">
         <v>401238956</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="71" t="s">
+    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A48" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="68">
+      <c r="D48" s="51">
         <v>43854</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="52">
         <v>1</v>
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="64">
+    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="47">
         <f>SUM(E46:E48)</f>
         <v>5</v>
       </c>
@@ -4626,14 +4801,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="20.25" thickTop="1">
       <c r="A50" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="90">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="73">
         <f>E49+E42+E13</f>
         <v>21.1</v>
       </c>
@@ -4656,11 +4831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
@@ -4672,17 +4847,17 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4701,52 +4876,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="28">
         <f>E13</f>
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="80" t="s">
+      <c r="B4" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="64">
         <v>43853</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="52">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
         <v>400040239</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="64">
         <v>43853</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="52">
         <f>E21</f>
         <v>2</v>
       </c>
@@ -4754,157 +4929,157 @@
         <v>400040241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="64">
         <v>43853</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="52">
         <f>E23</f>
         <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="64">
         <v>43853</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
         <v>400428238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="84" t="s">
+    <row r="8" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="64">
         <v>43853</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="52">
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
         <v>400237756</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="64">
         <v>43853</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="52">
         <v>0.2</v>
       </c>
       <c r="F9" s="1">
         <v>400240092</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="64">
         <v>43853</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="52">
         <v>0.2</v>
       </c>
       <c r="F10" s="1">
         <v>400240507</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="64">
         <v>43853</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="52">
         <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>400430180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="64">
         <v>43853</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="52">
         <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>400430773</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="64">
+    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A13" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="47">
         <f>SUM(E4:E12)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -4912,33 +5087,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="74"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="28">
         <f>E21</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="87" t="s">
+    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="B16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -4948,17 +5123,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="85" t="s">
+    <row r="17" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="64">
         <v>43853</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="52">
         <v>0.2</v>
       </c>
       <c r="F17" s="1">
@@ -4968,17 +5143,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="85" t="s">
+    <row r="18" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="64">
         <v>43853</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="52">
         <v>0.3</v>
       </c>
       <c r="F18" s="1">
@@ -4988,17 +5163,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="85" t="s">
+    <row r="19" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="64">
         <v>43853</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="52">
         <v>0.5</v>
       </c>
       <c r="F19" s="1">
@@ -5008,31 +5183,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75" t="s">
+    <row r="20" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="64">
         <v>43853</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="52">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="64">
+    <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="47">
         <f>SUM(E17:E20)</f>
         <v>2</v>
       </c>
@@ -5040,35 +5215,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="28">
         <f>E32</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="87" t="s">
+    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A24" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -5078,80 +5253,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="80" t="s">
+    <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A25" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="64">
         <v>43853</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="52">
         <v>0.7</v>
       </c>
       <c r="F25" s="1">
         <v>400196227</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A26" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="80" t="s">
+      <c r="B26" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="64">
         <v>43853</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="52">
         <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>400196227</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+    <row r="27" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A27" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="83" t="s">
+      <c r="B27" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="64">
         <v>43853</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="52">
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
         <v>400250003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+    <row r="28" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="64">
         <v>43853</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="52">
         <v>0.1</v>
       </c>
       <c r="F28" s="1">
@@ -5161,20 +5336,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+    <row r="29" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="64">
         <v>43853</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="52">
         <v>0.2</v>
       </c>
       <c r="F29" s="1">
@@ -5184,20 +5359,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+    <row r="30" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="64">
         <v>43853</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="52">
         <v>0.4</v>
       </c>
       <c r="F30" s="1">
@@ -5207,39 +5382,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="89" t="s">
+    <row r="31" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A31" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="64">
         <v>43853</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="52">
         <v>0.3</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="64">
+    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A32" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="47">
         <f>SUM(E25:E31)</f>
         <v>3.2</v>
       </c>
@@ -5247,36 +5422,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="74"/>
-    </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+    <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="28">
         <f>E42</f>
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="87" t="s">
+    <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -5286,40 +5461,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="82" t="s">
+    <row r="36" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A36" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="64">
         <v>43854</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="52">
         <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>400474592</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="82" t="s">
+    <row r="37" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A37" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="64">
         <v>43854</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="52">
         <v>3</v>
       </c>
       <c r="F37" s="1">
@@ -5335,20 +5510,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="82" t="s">
+    <row r="38" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A38" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="81">
+      <c r="D38" s="64">
         <v>43854</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="52">
         <v>2</v>
       </c>
       <c r="F38" s="1">
@@ -5358,20 +5533,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="83" t="s">
+    <row r="39" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A39" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="64">
         <v>43854</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="52">
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -5381,20 +5556,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="82" t="s">
+    <row r="40" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A40" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="64">
         <v>43854</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="52" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="1">
@@ -5404,18 +5579,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="80" t="s">
+    <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A41" s="48"/>
+      <c r="B41" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="81">
+      <c r="D41" s="64">
         <v>43847</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="1">
         <v>400503264</v>
       </c>
@@ -5432,16 +5607,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="64">
+    <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="47">
         <f>SUM(E36:E41)</f>
         <v>7</v>
       </c>
@@ -5449,27 +5624,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="74"/>
-    </row>
-    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="93" t="s">
+    <row r="43" spans="1:19" ht="0.75" hidden="1" customHeight="1">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="28">
         <f>E49</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+    <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="A45" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5488,76 +5663,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+    <row r="46" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A46" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="71" t="s">
+      <c r="B46" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="51">
         <v>43854</v>
       </c>
-      <c r="E46" s="69">
+      <c r="E46" s="52">
         <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>401237373</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+    <row r="47" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A47" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="72" t="s">
+      <c r="B47" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="51">
         <v>43854</v>
       </c>
-      <c r="E47" s="69">
+      <c r="E47" s="52">
         <v>3</v>
       </c>
       <c r="F47" s="1">
         <v>401238956</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="71" t="s">
+    <row r="48" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A48" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="68">
+      <c r="D48" s="51">
         <v>43854</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="52">
         <v>1</v>
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="64">
+    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
+      <c r="A49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="47">
         <f>SUM(E46:E48)</f>
         <v>5</v>
       </c>
@@ -5565,14 +5740,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="19.5">
       <c r="A50" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="90">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="73">
         <f>E49+E42+E13</f>
         <v>21.1</v>
       </c>
@@ -5593,122 +5768,207 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="105"/>
+    <col min="2" max="2" width="14.625" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="100" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="100" customWidth="1"/>
+    <col min="5" max="6" width="16.375" style="100" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="106"/>
+      <c r="B1" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="110"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="110"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="110"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" ht="57">
+      <c r="A6" s="110"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="109"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="110"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="110"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="111"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="110"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="111"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="110"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="111"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="112"/>
+      <c r="B15" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5718,34 +5978,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="8" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -5757,351 +6018,395 @@
       <c r="I2" s="42"/>
       <c r="J2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+        <v>92</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="44" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J3" s="37"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="88" t="str">
+        <f>L4</f>
+        <v>Create a clear and orderly directory structure</v>
+      </c>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="35"/>
       <c r="B5" s="33">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="C5" s="88" t="str">
+        <f t="shared" ref="C5:C11" si="0">L5</f>
+        <v>Both the code and the comments must be written in English</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="33">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="C6" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>Use the camelCase code style to define variables and functions</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="33">
         <v>4</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="C7" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>In the case of using HTML, never use online styles</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="35"/>
       <c r="B8" s="33">
         <v>5</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="C8" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>In the case of using different programming languages ​​always define the implementation in separate terms</v>
+      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32.25" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="33">
         <v>6</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="C9" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>Remember that it is important to divide the tasks into several sub-tasks so that in this way you can associate each particular step of the construction with a specific commit</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J9" s="37"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="33">
         <v>7</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="C10" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>You should try as much as possible that the commits and the planned tasks are the same</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45.75" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="33">
         <v>8</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="C11" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>Delete files that are not used or are not necessary to evaluate the project</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="45" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33">
-        <v>9</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="33">
-        <v>10</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1">
+      <c r="A13" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="88" t="str">
+        <f>L16</f>
+        <v>Repository with all project files</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="26.25" customHeight="1">
       <c r="A17" s="35"/>
-      <c r="B17" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="44" t="s">
-        <v>111</v>
+      <c r="B17" s="33">
+        <v>2</v>
+      </c>
+      <c r="C17" s="88" t="str">
+        <f>L17</f>
+        <v>You must create a correctly documented README file in the root directory of the project (see guidelines in Resources)</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="35"/>
       <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="45" t="s">
-        <v>112</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C18" s="88" t="str">
+        <f>L18</f>
+        <v>Documentation of the pill in PDF format</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="35"/>
       <c r="B19" s="33">
-        <v>2</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="45" t="s">
-        <v>112</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C19" s="88" t="str">
+        <f>L19</f>
+        <v>Presentation of the pill in PDF format</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="35"/>
       <c r="B20" s="33">
-        <v>3</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="45" t="s">
-        <v>112</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C20" s="88" t="str">
+        <f>L20</f>
+        <v>POSTMAN collection into the project repository</v>
+      </c>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33">
-        <v>4</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="L20" s="98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="L21" s="98"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="L22" s="98"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="L23" s="99"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="L24" s="99"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="L25" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -6109,12 +6414,6 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="139">
   <si>
     <t>General Analysis</t>
   </si>
@@ -5771,7 +5771,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5981,7 +5981,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -6182,7 +6182,9 @@
       <c r="F10" s="89"/>
       <c r="G10" s="89"/>
       <c r="H10" s="90"/>
-      <c r="I10" s="45"/>
+      <c r="I10" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="J10" s="37"/>
       <c r="L10" s="97" t="s">
         <v>89</v>

--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="139">
   <si>
     <t>General Analysis</t>
   </si>
@@ -5771,7 +5771,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5980,8 +5980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -6326,7 +6326,9 @@
       <c r="F18" s="89"/>
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
-      <c r="I18" s="45"/>
+      <c r="I18" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="L18" s="98" t="s">
         <v>99</v>

--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="139">
   <si>
     <t>General Analysis</t>
   </si>
@@ -5771,7 +5771,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5981,7 +5981,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -6348,7 +6348,9 @@
       <c r="F19" s="89"/>
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="L19" s="98" t="s">
         <v>100</v>

--- a/Postmam.xlsx
+++ b/Postmam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="139">
   <si>
     <t>General Analysis</t>
   </si>
@@ -451,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#0.0\ &quot;h&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -610,6 +610,20 @@
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1132,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,7 +1243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1239,9 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,15 +1368,6 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1376,18 +1377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1411,6 +1400,28 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3890,16 +3901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3919,31 +3930,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="47">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="45">
         <f>E13</f>
         <v>9.1000000000000014</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>43853</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="50">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
@@ -3951,19 +3962,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>43853</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="50">
         <f>E21</f>
         <v>2</v>
       </c>
@@ -3972,36 +3983,36 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>43853</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <f>E23</f>
         <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>43853</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="50">
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
@@ -4009,19 +4020,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>43853</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="50">
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
@@ -4029,19 +4040,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>43853</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>0.2</v>
       </c>
       <c r="F9" s="1">
@@ -4049,19 +4060,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>43853</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="50">
         <v>0.2</v>
       </c>
       <c r="F10" s="1">
@@ -4069,19 +4080,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>43853</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="50">
         <v>1</v>
       </c>
       <c r="F11" s="1">
@@ -4089,19 +4100,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="49">
         <v>43853</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -4109,19 +4120,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A13" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="A13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="45">
         <f>SUM(E4:E12)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -4130,26 +4141,26 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="47">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="45">
         <f>E21</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4169,19 +4180,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="49">
         <v>43853</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="50">
         <v>0.2</v>
       </c>
       <c r="F17" s="1">
@@ -4192,19 +4203,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="56" t="s">
+      <c r="B18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="49">
         <v>43853</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="50">
         <v>0.3</v>
       </c>
       <c r="F18" s="1">
@@ -4215,19 +4226,19 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="49">
         <v>43853</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="50">
         <v>0.5</v>
       </c>
       <c r="F19" s="1">
@@ -4238,36 +4249,36 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="56" t="s">
+      <c r="B20" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="49">
         <v>43853</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="50">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="45">
         <f>SUM(E17:E20)</f>
         <v>2</v>
       </c>
@@ -4276,26 +4287,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="47">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="45">
         <f>E32</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4315,19 +4326,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="49">
         <v>43853</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="50">
         <v>0.7</v>
       </c>
       <c r="F25" s="1">
@@ -4335,19 +4346,19 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="49">
         <v>43853</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="50">
         <v>1</v>
       </c>
       <c r="F26" s="1">
@@ -4355,19 +4366,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="49">
         <v>43853</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="50">
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
@@ -4375,19 +4386,19 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="49">
         <v>43853</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="50">
         <v>0.1</v>
       </c>
       <c r="F28" s="1">
@@ -4398,19 +4409,19 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="49">
         <v>43853</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="50">
         <v>0.2</v>
       </c>
       <c r="F29" s="1">
@@ -4421,19 +4432,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="49">
         <v>43853</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="50">
         <v>0.4</v>
       </c>
       <c r="F30" s="1">
@@ -4444,38 +4455,38 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="49">
         <v>43853</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="50">
         <v>0.3</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A32" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="47">
+      <c r="A32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="45">
         <f>SUM(E25:E31)</f>
         <v>3.2</v>
       </c>
@@ -4484,26 +4495,26 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="47">
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="45">
         <f>E42</f>
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4523,19 +4534,19 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="49">
         <v>43854</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="50">
         <v>1</v>
       </c>
       <c r="F36" s="1">
@@ -4543,19 +4554,19 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="53" t="s">
+      <c r="B37" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="49">
         <v>43854</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="50">
         <v>3</v>
       </c>
       <c r="F37" s="1">
@@ -4572,19 +4583,19 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="49">
         <v>43854</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="50">
         <v>2</v>
       </c>
       <c r="F38" s="1">
@@ -4595,19 +4606,19 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="49">
         <v>43854</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="50">
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -4618,19 +4629,19 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="53" t="s">
+      <c r="B40" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="49">
         <v>43854</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="50" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="1">
@@ -4641,17 +4652,17 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="50" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="49">
         <v>43847</v>
       </c>
-      <c r="E41" s="52"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="1">
         <v>400503264</v>
       </c>
@@ -4669,15 +4680,15 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="47">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="45">
         <f>SUM(E36:E41)</f>
         <v>7</v>
       </c>
@@ -4686,26 +4697,26 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="0.75" customHeight="1" thickTop="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="47">
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="45">
         <f>E49</f>
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4725,19 +4736,19 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="54" t="s">
+      <c r="B46" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="49">
         <v>43854</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="50">
         <v>1</v>
       </c>
       <c r="F46" s="1">
@@ -4745,19 +4756,19 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="49">
         <v>43854</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="50">
         <v>3</v>
       </c>
       <c r="F47" s="1">
@@ -4765,35 +4776,35 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="54" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="49">
         <v>43854</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="50">
         <v>1</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="47">
+      <c r="A49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="45">
         <f>SUM(E46:E48)</f>
         <v>5</v>
       </c>
@@ -4805,10 +4816,10 @@
       <c r="A50" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="73">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="71">
         <f>E49+E42+E13</f>
         <v>21.1</v>
       </c>
@@ -4848,16 +4859,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4877,31 +4888,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="28">
         <f>E13</f>
         <v>9.1000000000000014</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <v>43853</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="50">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
@@ -4909,19 +4920,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="62">
         <v>43853</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="50">
         <f>E21</f>
         <v>2</v>
       </c>
@@ -4930,36 +4941,36 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <v>43853</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <f>E23</f>
         <v>3.2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <v>43853</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="50">
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
@@ -4967,19 +4978,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="62">
         <v>43853</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="50">
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
@@ -4987,19 +4998,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="62">
         <v>43853</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>0.2</v>
       </c>
       <c r="F9" s="1">
@@ -5007,19 +5018,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <v>43853</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="50">
         <v>0.2</v>
       </c>
       <c r="F10" s="1">
@@ -5027,19 +5038,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <v>43853</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="50">
         <v>1</v>
       </c>
       <c r="F11" s="1">
@@ -5047,19 +5058,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="62">
         <v>43853</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -5067,19 +5078,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A13" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="A13" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="45">
         <f>SUM(E4:E12)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -5088,32 +5099,32 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" hidden="1" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="57"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="28">
         <f>E21</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="B16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="70" t="s">
+      <c r="B16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="68" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -5124,16 +5135,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="62">
         <v>43853</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="50">
         <v>0.2</v>
       </c>
       <c r="F17" s="1">
@@ -5144,16 +5155,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <v>43853</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="50">
         <v>0.3</v>
       </c>
       <c r="F18" s="1">
@@ -5164,16 +5175,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="62">
         <v>43853</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="50">
         <v>0.5</v>
       </c>
       <c r="F19" s="1">
@@ -5184,30 +5195,30 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="62">
         <v>43853</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="50">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="B21" s="67"/>
+      <c r="C21" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="45">
         <f>SUM(E17:E20)</f>
         <v>2</v>
       </c>
@@ -5216,34 +5227,34 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" thickTop="1">
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="28">
         <f>E32</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="68" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -5254,19 +5265,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="63" t="s">
+      <c r="B25" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="62">
         <v>43853</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="50">
         <v>0.7</v>
       </c>
       <c r="F25" s="1">
@@ -5274,19 +5285,19 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="63" t="s">
+      <c r="B26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="62">
         <v>43853</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="50">
         <v>1</v>
       </c>
       <c r="F26" s="1">
@@ -5294,19 +5305,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="66" t="s">
+      <c r="B27" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="62">
         <v>43853</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="50">
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
@@ -5314,19 +5325,19 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="62">
         <v>43853</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="50">
         <v>0.1</v>
       </c>
       <c r="F28" s="1">
@@ -5337,19 +5348,19 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="62">
         <v>43853</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="50">
         <v>0.2</v>
       </c>
       <c r="F29" s="1">
@@ -5360,19 +5371,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="62">
         <v>43853</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="50">
         <v>0.4</v>
       </c>
       <c r="F30" s="1">
@@ -5383,38 +5394,38 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="62">
         <v>43853</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="50">
         <v>0.3</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A32" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="47">
+      <c r="A32" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="45">
         <f>SUM(E25:E31)</f>
         <v>3.2</v>
       </c>
@@ -5423,35 +5434,35 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="39.950000000000003" hidden="1" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="57"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="28">
         <f>E42</f>
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="70" t="s">
+      <c r="A35" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="68" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -5462,19 +5473,19 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="65" t="s">
+      <c r="B36" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="62">
         <v>43854</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="50">
         <v>1</v>
       </c>
       <c r="F36" s="1">
@@ -5482,19 +5493,19 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="65" t="s">
+      <c r="B37" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="62">
         <v>43854</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="50">
         <v>3</v>
       </c>
       <c r="F37" s="1">
@@ -5511,19 +5522,19 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="65" t="s">
+      <c r="B38" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="62">
         <v>43854</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="50">
         <v>2</v>
       </c>
       <c r="F38" s="1">
@@ -5534,19 +5545,19 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="66" t="s">
+      <c r="B39" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="62">
         <v>43854</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="50">
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -5557,19 +5568,19 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="65" t="s">
+      <c r="B40" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="62">
         <v>43854</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="50" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="1">
@@ -5580,17 +5591,17 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="63" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="62">
         <v>43847</v>
       </c>
-      <c r="E41" s="52"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="1">
         <v>400503264</v>
       </c>
@@ -5608,15 +5619,15 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="47">
+      <c r="A42" s="67"/>
+      <c r="B42" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="45">
         <f>SUM(E36:E41)</f>
         <v>7</v>
       </c>
@@ -5625,26 +5636,26 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="0.75" hidden="1" customHeight="1">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="57"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="28">
         <f>E49</f>
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5664,19 +5675,19 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="54" t="s">
+      <c r="B46" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="49">
         <v>43854</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="50">
         <v>1</v>
       </c>
       <c r="F46" s="1">
@@ -5684,19 +5695,19 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="49">
         <v>43854</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="50">
         <v>3</v>
       </c>
       <c r="F47" s="1">
@@ -5704,35 +5715,35 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="54" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="49">
         <v>43854</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="50">
         <v>1</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" thickTop="1">
-      <c r="A49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="47">
+      <c r="A49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="45">
         <f>SUM(E46:E48)</f>
         <v>5</v>
       </c>
@@ -5744,10 +5755,10 @@
       <c r="A50" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="73">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="71">
         <f>E49+E42+E13</f>
         <v>21.1</v>
       </c>
@@ -5776,199 +5787,199 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="105"/>
-    <col min="2" max="2" width="14.625" style="100" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="100" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="100" customWidth="1"/>
-    <col min="5" max="6" width="16.375" style="100" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="100"/>
+    <col min="1" max="1" width="11" style="94"/>
+    <col min="2" max="2" width="14.625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="89" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="89" customWidth="1"/>
+    <col min="5" max="6" width="16.375" style="89" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="106"/>
-      <c r="B1" s="107" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="108"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="101" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="101" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="101" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="57">
-      <c r="A6" s="110"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="104" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="109"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="101" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="111"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="110"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="101" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="100"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="110"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="101" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="111"/>
+      <c r="F10" s="100"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="110"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="101" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="100"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="110"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="101" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="111"/>
+      <c r="F12" s="100"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5981,7 +5992,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5992,414 +6003,416 @@
     <col min="10" max="10" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" ht="18.75" thickBot="1">
+      <c r="A1" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="44" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="88" t="str">
+      <c r="C4" s="83" t="str">
         <f>L4</f>
         <v>Create a clear and orderly directory structure</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="45" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="L4" s="97" t="s">
+      <c r="J4" s="36"/>
+      <c r="L4" s="86" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="33">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="str">
+      <c r="C5" s="83" t="str">
         <f t="shared" ref="C5:C11" si="0">L5</f>
         <v>Both the code and the comments must be written in English</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="45" t="s">
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="L5" s="97" t="s">
+      <c r="J5" s="36"/>
+      <c r="L5" s="86" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="33">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="str">
+      <c r="C6" s="83" t="str">
         <f t="shared" si="0"/>
         <v>Use the camelCase code style to define variables and functions</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="45" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="L6" s="97" t="s">
+      <c r="J6" s="36"/>
+      <c r="L6" s="86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="33">
         <v>4</v>
       </c>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="83" t="str">
         <f t="shared" si="0"/>
         <v>In the case of using HTML, never use online styles</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="45" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="L7" s="97" t="s">
+      <c r="J7" s="36"/>
+      <c r="L7" s="86" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="33">
         <v>5</v>
       </c>
-      <c r="C8" s="88" t="str">
+      <c r="C8" s="83" t="str">
         <f t="shared" si="0"/>
         <v>In the case of using different programming languages ​​always define the implementation in separate terms</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="45" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="L8" s="97" t="s">
+      <c r="J8" s="36"/>
+      <c r="L8" s="86" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="33">
         <v>6</v>
       </c>
-      <c r="C9" s="88" t="str">
+      <c r="C9" s="83" t="str">
         <f t="shared" si="0"/>
         <v>Remember that it is important to divide the tasks into several sub-tasks so that in this way you can associate each particular step of the construction with a specific commit</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="45" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="L9" s="97" t="s">
+      <c r="J9" s="36"/>
+      <c r="L9" s="86" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="33">
         <v>7</v>
       </c>
-      <c r="C10" s="88" t="str">
+      <c r="C10" s="83" t="str">
         <f t="shared" si="0"/>
         <v>You should try as much as possible that the commits and the planned tasks are the same</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="45" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="L10" s="97" t="s">
+      <c r="J10" s="36"/>
+      <c r="L10" s="86" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="33">
         <v>8</v>
       </c>
-      <c r="C11" s="88" t="str">
+      <c r="C11" s="83" t="str">
         <f t="shared" si="0"/>
         <v>Delete files that are not used or are not necessary to evaluate the project</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="45" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="L11" s="97" t="s">
+      <c r="J11" s="36"/>
+      <c r="L11" s="86" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="85" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" thickBot="1">
+      <c r="A13" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="44" t="s">
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="33">
         <v>1</v>
       </c>
-      <c r="C16" s="88" t="str">
+      <c r="C16" s="83" t="str">
         <f>L16</f>
         <v>Repository with all project files</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="45" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="L16" s="98" t="s">
+      <c r="J16" s="36"/>
+      <c r="L16" s="87" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="33">
         <v>2</v>
       </c>
-      <c r="C17" s="88" t="str">
+      <c r="C17" s="83" t="str">
         <f>L17</f>
         <v>You must create a correctly documented README file in the root directory of the project (see guidelines in Resources)</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="45" t="s">
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="L17" s="98" t="s">
+      <c r="J17" s="36"/>
+      <c r="L17" s="87" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="33">
         <v>3</v>
       </c>
-      <c r="C18" s="88" t="str">
+      <c r="C18" s="83" t="str">
         <f>L18</f>
         <v>Documentation of the pill in PDF format</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="45" t="s">
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="L18" s="98" t="s">
+      <c r="J18" s="36"/>
+      <c r="L18" s="87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="33">
         <v>4</v>
       </c>
-      <c r="C19" s="88" t="str">
+      <c r="C19" s="83" t="str">
         <f>L19</f>
         <v>Presentation of the pill in PDF format</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="45" t="s">
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="L19" s="98" t="s">
+      <c r="J19" s="36"/>
+      <c r="L19" s="87" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="33">
         <v>5</v>
       </c>
-      <c r="C20" s="88" t="str">
+      <c r="C20" s="83" t="str">
         <f>L20</f>
         <v>POSTMAN collection into the project repository</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="37"/>
-      <c r="L20" s="98" t="s">
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="L20" s="87" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="L21" s="98"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="L21" s="87"/>
     </row>
     <row r="22" spans="1:12" ht="15">
-      <c r="L22" s="98"/>
+      <c r="L22" s="87"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="L23" s="99"/>
+      <c r="L23" s="88"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="L24" s="99"/>
+      <c r="L24" s="88"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="L25" s="99"/>
+      <c r="L25" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="17">
